--- a/biology/Microbiologie/Aveliidae/Aveliidae.xlsx
+++ b/biology/Microbiologie/Aveliidae/Aveliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aveliidae sont une famille de Ciliés de la classe des Karyorelictea et de l’ordre des Protoheterotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Avelia, donné en hommage à Marcel Avel (d) (1900–1983), professeur d'anatomie[1], avec une légère modification dans le nomen novum (en) Avelia pour éviter une homonymie taxonomique avec le genre Avela (en), un genre de papillons du Brésil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Avelia, donné en hommage à Marcel Avel (d) (1900–1983), professeur d'anatomie, avec une légère modification dans le nomen novum (en) Avelia pour éviter une homonymie taxonomique avec le genre Avela (en), un genre de papillons du Brésil.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 avril 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 avril 2023) :
 Avelia (en) Nouzarède, 1977
 Espèce type : Avela martinicensis Nouzarède, 1977
 Parduczia Dragesco, 1999
-Synonyme : Parducia Dragesco, 1999[2]
+Synonyme : Parducia Dragesco, 1999
 Espèce type : Geleia orbis Faure-Fremiet, 1950
 Parduzia ⇔ Parduczia ⇔ Parducia</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Aveliidae Dragesco, 1999[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Aveliidae Dragesco, 1999.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean Dragesco, « Révision des Geléiides (Ciliophora, Karyorelictea) », Stapfia, vol. 66,‎ 1999, p. 1-91 (ISSN 0252-192X, lire en ligne)</t>
         </is>
